--- a/data/answers.xlsx
+++ b/data/answers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ126"/>
+  <dimension ref="A1:BS126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,7 +811,21 @@
           <t>Unnamed: 67</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr"/>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 68</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 69</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 70</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1004,22 +1018,22 @@
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>Разные</t>
+          <t>kasjdhf'</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>Странным</t>
+          <t>aaslkdfas</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Рооол</t>
+          <t>asdf</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>Разная</t>
+          <t>asdf</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
@@ -1039,7 +1053,7 @@
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>Анарал</t>
+          <t>лывоапрлыорвап</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
@@ -1049,12 +1063,12 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>Аррлл</t>
+          <t>ыва</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Имсчч</t>
+          <t>ывам</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
@@ -1134,12 +1148,12 @@
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>Ьсьмлм</t>
+          <t>,skldfjgsd</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>Осослсл</t>
+          <t>gsdfgskldfghsdflkgjhsdfkgh</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
@@ -1155,6 +1169,16 @@
       <c r="BQ2" t="inlineStr">
         <is>
           <t>Сльсллсшвшв</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>фыбвалфодывдлаофыв</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>ывамывам</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1521,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1838,7 +1876,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2179,7 +2231,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2520,7 +2586,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2864,7 +2944,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -3205,7 +3299,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3546,7 +3654,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3896,7 +4018,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -4254,7 +4390,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -4595,7 +4745,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -4949,7 +5113,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -5290,7 +5468,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -5631,7 +5823,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -5976,7 +6182,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -6324,7 +6544,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -6665,7 +6899,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -7006,7 +7254,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -7347,7 +7609,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -7688,7 +7964,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -8029,7 +8319,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -8379,7 +8683,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -8720,7 +9038,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -9061,7 +9393,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -9402,7 +9748,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -9743,7 +10103,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -10114,7 +10488,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -10455,7 +10843,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -10796,7 +11198,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -11138,7 +11554,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -11479,7 +11909,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -11825,7 +12269,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -12176,7 +12634,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -12539,7 +13011,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -12884,7 +13370,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ36" t="inlineStr"/>
+      <c r="BQ36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -13225,7 +13725,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -13571,7 +14085,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -13912,7 +14440,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -14253,7 +14795,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -14594,7 +15150,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -14935,7 +15505,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -15280,7 +15864,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -15621,7 +16219,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ44" t="inlineStr"/>
+      <c r="BQ44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -15972,7 +16584,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -16313,7 +16939,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS46" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -16654,7 +17294,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -16995,7 +17649,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ48" t="inlineStr"/>
+      <c r="BQ48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -17336,7 +18004,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ49" t="inlineStr"/>
+      <c r="BQ49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -17677,7 +18359,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -18018,7 +18714,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ51" t="inlineStr"/>
+      <c r="BQ51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -18369,7 +19079,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ52" t="inlineStr"/>
+      <c r="BQ52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -18713,7 +19437,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ53" t="inlineStr"/>
+      <c r="BQ53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -19054,7 +19792,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS54" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -19395,7 +20147,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ55" t="inlineStr"/>
+      <c r="BQ55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -19736,7 +20502,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ56" t="inlineStr"/>
+      <c r="BQ56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS56" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -20077,7 +20857,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ57" t="inlineStr"/>
+      <c r="BQ57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS57" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -20418,7 +21212,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ58" t="inlineStr"/>
+      <c r="BQ58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS58" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -20759,7 +21567,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ59" t="inlineStr"/>
+      <c r="BQ59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS59" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -21100,7 +21922,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ60" t="inlineStr"/>
+      <c r="BQ60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS60" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -21442,7 +22278,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ61" t="inlineStr"/>
+      <c r="BQ61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS61" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -21783,7 +22633,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ62" t="inlineStr"/>
+      <c r="BQ62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS62" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -22124,7 +22988,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ63" t="inlineStr"/>
+      <c r="BQ63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS63" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -22465,7 +23343,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ64" t="inlineStr"/>
+      <c r="BQ64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS64" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -22806,7 +23698,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ65" t="inlineStr"/>
+      <c r="BQ65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS65" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -23147,7 +24053,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ66" t="inlineStr"/>
+      <c r="BQ66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS66" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -23488,7 +24408,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ67" t="inlineStr"/>
+      <c r="BQ67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS67" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -23829,7 +24763,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ68" t="inlineStr"/>
+      <c r="BQ68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS68" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -24170,7 +25118,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ69" t="inlineStr"/>
+      <c r="BQ69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS69" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -24511,7 +25473,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ70" t="inlineStr"/>
+      <c r="BQ70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS70" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -24854,7 +25830,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ71" t="inlineStr"/>
+      <c r="BQ71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS71" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -25196,7 +26186,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ72" t="inlineStr"/>
+      <c r="BQ72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS72" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -25537,7 +26541,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ73" t="inlineStr"/>
+      <c r="BQ73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS73" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -25878,7 +26896,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ74" t="inlineStr"/>
+      <c r="BQ74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS74" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -26219,7 +27251,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ75" t="inlineStr"/>
+      <c r="BQ75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS75" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -26565,7 +27611,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ76" t="inlineStr"/>
+      <c r="BQ76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS76" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -26906,7 +27966,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ77" t="inlineStr"/>
+      <c r="BQ77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS77" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -27247,7 +28321,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ78" t="inlineStr"/>
+      <c r="BQ78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS78" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -27588,7 +28676,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ79" t="inlineStr"/>
+      <c r="BQ79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS79" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -27929,7 +29031,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ80" t="inlineStr"/>
+      <c r="BQ80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS80" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -28270,7 +29386,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ81" t="inlineStr"/>
+      <c r="BQ81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS81" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -28611,7 +29741,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ82" t="inlineStr"/>
+      <c r="BQ82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS82" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -28952,7 +30096,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ83" t="inlineStr"/>
+      <c r="BQ83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS83" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -29296,7 +30454,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ84" t="inlineStr"/>
+      <c r="BQ84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS84" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -29637,7 +30809,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ85" t="inlineStr"/>
+      <c r="BQ85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS85" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -29978,7 +31164,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ86" t="inlineStr"/>
+      <c r="BQ86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS86" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -30319,7 +31519,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ87" t="inlineStr"/>
+      <c r="BQ87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS87" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -30660,7 +31874,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ88" t="inlineStr"/>
+      <c r="BQ88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS88" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -31001,7 +32229,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ89" t="inlineStr"/>
+      <c r="BQ89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS89" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -31342,7 +32584,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ90" t="inlineStr"/>
+      <c r="BQ90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS90" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -31683,7 +32939,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ91" t="inlineStr"/>
+      <c r="BQ91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS91" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -32024,7 +33294,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ92" t="inlineStr"/>
+      <c r="BQ92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS92" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -32365,7 +33649,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ93" t="inlineStr"/>
+      <c r="BQ93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS93" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -32709,7 +34007,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ94" t="inlineStr"/>
+      <c r="BQ94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS94" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -33050,7 +34362,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ95" t="inlineStr"/>
+      <c r="BQ95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS95" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -33391,7 +34717,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ96" t="inlineStr"/>
+      <c r="BQ96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS96" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -33732,7 +35072,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ97" t="inlineStr"/>
+      <c r="BQ97" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR97" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS97" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -34074,7 +35428,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ98" t="inlineStr"/>
+      <c r="BQ98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS98" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -34415,7 +35783,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ99" t="inlineStr"/>
+      <c r="BQ99" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR99" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS99" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -34756,7 +36138,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ100" t="inlineStr"/>
+      <c r="BQ100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS100" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -35097,7 +36493,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ101" t="inlineStr"/>
+      <c r="BQ101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS101" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -35438,7 +36848,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ102" t="inlineStr"/>
+      <c r="BQ102" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR102" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS102" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -35779,7 +37203,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ103" t="inlineStr"/>
+      <c r="BQ103" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR103" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS103" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -36120,7 +37558,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ104" t="inlineStr"/>
+      <c r="BQ104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS104" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -36461,7 +37913,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ105" t="inlineStr"/>
+      <c r="BQ105" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR105" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS105" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -36802,7 +38268,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ106" t="inlineStr"/>
+      <c r="BQ106" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR106" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS106" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -37143,7 +38623,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ107" t="inlineStr"/>
+      <c r="BQ107" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR107" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS107" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -37488,7 +38982,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ108" t="inlineStr"/>
+      <c r="BQ108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS108" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -37829,7 +39337,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ109" t="inlineStr"/>
+      <c r="BQ109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS109" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -38170,7 +39692,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ110" t="inlineStr"/>
+      <c r="BQ110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS110" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -38511,7 +40047,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ111" t="inlineStr"/>
+      <c r="BQ111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS111" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -38852,7 +40402,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ112" t="inlineStr"/>
+      <c r="BQ112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS112" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -39193,7 +40757,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ113" t="inlineStr"/>
+      <c r="BQ113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS113" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -39534,7 +41112,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ114" t="inlineStr"/>
+      <c r="BQ114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS114" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -39875,7 +41467,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ115" t="inlineStr"/>
+      <c r="BQ115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS115" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -40216,7 +41822,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ116" t="inlineStr"/>
+      <c r="BQ116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS116" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -40557,7 +42177,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ117" t="inlineStr"/>
+      <c r="BQ117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS117" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -40898,7 +42532,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ118" t="inlineStr"/>
+      <c r="BQ118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS118" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -41239,7 +42887,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ119" t="inlineStr"/>
+      <c r="BQ119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS119" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -41580,7 +43242,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ120" t="inlineStr"/>
+      <c r="BQ120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS120" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -41921,7 +43597,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ121" t="inlineStr"/>
+      <c r="BQ121" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR121" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS121" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -42262,7 +43952,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ122" t="inlineStr"/>
+      <c r="BQ122" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR122" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS122" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -42603,7 +44307,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ123" t="inlineStr"/>
+      <c r="BQ123" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR123" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS123" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -42944,7 +44662,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ124" t="inlineStr"/>
+      <c r="BQ124" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR124" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS124" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -43285,7 +45017,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ125" t="inlineStr"/>
+      <c r="BQ125" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR125" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS125" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -43626,7 +45372,21 @@
           <t>nan</t>
         </is>
       </c>
-      <c r="BQ126" t="inlineStr"/>
+      <c r="BQ126" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BR126" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="BS126" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
